--- a/biology/Botanique/Tehtaanpuisto/Tehtaanpuisto.xlsx
+++ b/biology/Botanique/Tehtaanpuisto/Tehtaanpuisto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de l'usine (en finnois : Tehtaanpuisto) ou parc du forgeron (en finnois : Sepänpuisto)  est un parc du quartier Punavuori à Helsinki en Finlande
-[1],[2].
+,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à la limite sud de Punavuori, le parc entoure l'église Mikael Agricola. 
 Le parc est délimité par Tehtaankatu au sud, Laivurinkatu à l'est et Sepänkatu au nord-ouest. 
@@ -548,14 +562,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début du XIXe siècle, à l'emplacement du parc Tehtaanpuisto, se trouvaient le jardin et les serres du sénateur Otto Wilhelm Klinkowström. 
-Le parc était ouvert au public et un lieu de promenade populaire les soirs d'été[3].
-En 1834, la zone du jardin a été cédée à la garde finlandaise pour servir principalement de champ de tir jusqu'en 1883[3].
-En 1920, lors de la première foire commerciale de Finlande, une fête foraine a fonctionné dans le parc[3].
-L'église Mikael Agricola a été achevée en 1935[3].
-La zone du parc a appartenu au quartier d'Eira jusqu'en 1977, quand la limite entre Eira et Punavuori a été déplacée de Sepänkatu à Tehtaankatu[3].
+Le parc était ouvert au public et un lieu de promenade populaire les soirs d'été.
+En 1834, la zone du jardin a été cédée à la garde finlandaise pour servir principalement de champ de tir jusqu'en 1883.
+En 1920, lors de la première foire commerciale de Finlande, une fête foraine a fonctionné dans le parc.
+L'église Mikael Agricola a été achevée en 1935.
+La zone du parc a appartenu au quartier d'Eira jusqu'en 1977, quand la limite entre Eira et Punavuori a été déplacée de Sepänkatu à Tehtaankatu.
 </t>
         </is>
       </c>
